--- a/pred_ohlcv/54_21/2019-10-29 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WAVES ohlcv.xlsx
@@ -2940,7 +2940,7 @@
         <v>130988.02502884</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>149937.22878146</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>137333.13068146</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>142267.25538146</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>136866.88378146</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>141356.38488146</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>151543.98188146</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>119650.28149341</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>70923.44359341</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>71779.50929341001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-234987.92787626</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-231110.99097626</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-233729.2113762599</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-233654.2113762599</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-233654.2113762599</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-233654.2113762599</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-233654.2113762599</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-234824.39967626</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-234405.5578289</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-238765.4945289</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-237321.5078289</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-237220.3613288999</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-233237.6011289</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-234028.5471289</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-234023.5471289</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-234096.6888289</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-234096.6888289</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-231567.5705289</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-229326.3584289</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-249285.71753848</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-286252.05123848</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-286252.05123848</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-286331.05123848</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-286976.05123848</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-291652.16943848</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-291646.16943848</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WAVES ohlcv.xlsx
@@ -2940,7 +2940,7 @@
         <v>130988.02502884</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>149937.22878146</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>137333.13068146</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>142267.25538146</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>136866.88378146</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>141356.38488146</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>151543.98188146</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>119650.28149341</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>70923.44359341</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>71779.50929341001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-234096.6888289</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-231567.5705289</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-229326.3584289</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-249285.71753848</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-249285.71753848</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-249063.02753848</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-249325.02753848</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-249436.39923848</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-268806.82223848</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
